--- a/小資存股/Chapter 2.xlsx
+++ b/小資存股/Chapter 2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="table 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -596,6 +597,134 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>其他人已累積</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>每年投入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>累計投入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>總計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>歲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>歲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>歲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>歲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>歲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>歲</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -723,13 +852,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -741,14 +878,6 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6234,8 +6363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P90" sqref="P90"/>
+    <sheetView topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6270,36 +6399,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="14">
+      <c r="E1" s="18">
         <v>0.02</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19">
         <v>0.05</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="Q1" s="11">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="Q1" s="15">
         <v>0.02</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="U1" s="13">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="U1" s="16">
         <v>0.05</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="Y1" s="12">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="Y1" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8893,41 +9022,41 @@
       <c r="N35" s="7"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Q37" s="11">
+      <c r="Q37" s="15">
         <v>0.02</v>
       </c>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="U37" s="13">
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="U37" s="16">
         <v>0.05</v>
       </c>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="Y37" s="12">
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="Y37" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="15">
         <v>0.02</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
       <c r="H38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
       <c r="O38" s="3"/>
       <c r="P38" s="4" t="s">
         <v>40</v>
@@ -8993,28 +9122,28 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="17">
+      <c r="C40" s="11">
         <v>36000</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="12">
         <v>45600</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="12">
         <v>60100</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="12">
         <v>84450</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="11">
         <v>36000</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="12">
         <v>71250</v>
       </c>
       <c r="L40" s="5">
         <v>102830</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="12">
         <v>157600</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -9149,12 +9278,12 @@
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="16">
         <v>0.05</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="J43" s="2"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5">
@@ -9206,13 +9335,13 @@
       <c r="F44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="13">
         <v>0.02</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="14">
         <v>0.05</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P44" s="5"/>
@@ -9253,28 +9382,28 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="17">
+      <c r="C45" s="11">
         <v>36000</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="12">
         <v>50100</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="12">
         <v>72330</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="12">
         <v>110850</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="11">
         <v>36000</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="11">
         <v>36000</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="11">
         <v>36000</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -9329,13 +9458,13 @@
       <c r="I46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="12">
         <v>45600</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="12">
         <v>50100</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="12">
         <v>71250</v>
       </c>
       <c r="P46" s="5"/>
@@ -9379,10 +9508,10 @@
       <c r="I47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="12">
         <v>60100</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="12">
         <v>72330</v>
       </c>
       <c r="L47" s="5">
@@ -9429,13 +9558,13 @@
       <c r="I48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="12">
         <v>84450</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="12">
         <v>110850</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="12">
         <v>157600</v>
       </c>
       <c r="P48" s="5"/>
@@ -9921,21 +10050,21 @@
       <c r="N61" s="7"/>
     </row>
     <row r="63" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="Q63" s="11">
+      <c r="Q63" s="15">
         <v>0.02</v>
       </c>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="U63" s="13">
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="U63" s="16">
         <v>0.05</v>
       </c>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="Y63" s="12">
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="Y63" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
     </row>
     <row r="64" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O64" s="3"/>
@@ -10638,4 +10767,2261 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <v>227092.35467519998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F5" s="2">
+        <v>244868.86125000002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>50100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>257518.46666520007</v>
+      </c>
+      <c r="K5" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L5" s="1">
+        <v>71250</v>
+      </c>
+      <c r="M5" s="1">
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D6" s="1">
+        <v>91200</v>
+      </c>
+      <c r="E6" s="1">
+        <v>92112</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100200</v>
+      </c>
+      <c r="I6" s="1">
+        <v>102705</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L6" s="1">
+        <v>142500</v>
+      </c>
+      <c r="M6" s="1">
+        <v>146062.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D7" s="1">
+        <v>137712</v>
+      </c>
+      <c r="E7" s="1">
+        <v>139554.23999999999</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>152805</v>
+      </c>
+      <c r="I7" s="1">
+        <v>157940.25</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L7" s="1">
+        <v>217312.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>224615.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D8" s="1">
+        <v>185154.24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>187945.3248</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H8" s="1">
+        <v>208040.25</v>
+      </c>
+      <c r="I8" s="1">
+        <v>215937.26250000001</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L8" s="1">
+        <v>295865.625</v>
+      </c>
+      <c r="M8" s="1">
+        <v>307096.40625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>233545.3248</v>
+      </c>
+      <c r="E9" s="1">
+        <v>237304.23129600001</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>266037.26250000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>276834.12562499999</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L9" s="1">
+        <v>378346.40625</v>
+      </c>
+      <c r="M9" s="1">
+        <v>393701.2265625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2">
+        <v>438073.75511037413</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D10" s="1">
+        <v>282904.23129600001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>287650.31592192</v>
+      </c>
+      <c r="F10" s="2">
+        <v>511444.33784374589</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H10" s="1">
+        <v>326934.12562499999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>340775.83190624998</v>
+      </c>
+      <c r="J10" s="2">
+        <v>568209.57546848676</v>
+      </c>
+      <c r="K10" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L10" s="1">
+        <v>464951.2265625</v>
+      </c>
+      <c r="M10" s="1">
+        <v>484636.28789062501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D11" s="1">
+        <v>333250.31592192</v>
+      </c>
+      <c r="E11" s="1">
+        <v>339003.32224035839</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>390875.83190624998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>407914.62350156251</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L11" s="1">
+        <v>555886.28789062495</v>
+      </c>
+      <c r="M11" s="1">
+        <v>580118.10228515626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D12" s="1">
+        <v>384603.32224035839</v>
+      </c>
+      <c r="E12" s="1">
+        <v>391383.38868516556</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>458014.62350156251</v>
+      </c>
+      <c r="I12" s="1">
+        <v>478410.35467664065</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L12" s="1">
+        <v>651368.10228515626</v>
+      </c>
+      <c r="M12" s="1">
+        <v>680374.00739941408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D13" s="1">
+        <v>436983.38868516556</v>
+      </c>
+      <c r="E13" s="1">
+        <v>444811.0564588689</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>528510.35467664059</v>
+      </c>
+      <c r="I13" s="1">
+        <v>552430.87241047272</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L13" s="1">
+        <v>751624.00739941408</v>
+      </c>
+      <c r="M13" s="1">
+        <v>785642.70776938484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D14" s="1">
+        <v>490411.0564588689</v>
+      </c>
+      <c r="E14" s="1">
+        <v>499307.27758804627</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>602530.87241047272</v>
+      </c>
+      <c r="I14" s="1">
+        <v>630152.41603099636</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L14" s="1">
+        <v>856892.70776938484</v>
+      </c>
+      <c r="M14" s="1">
+        <v>896174.84315785416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2">
+        <v>671014.26916310214</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>544907.27758804627</v>
+      </c>
+      <c r="E15" s="1">
+        <v>554893.42313980719</v>
+      </c>
+      <c r="F15" s="2">
+        <v>851669.7036349941</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H15" s="1">
+        <v>680252.41603099636</v>
+      </c>
+      <c r="I15" s="1">
+        <v>711760.03683254623</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1003969.9278336386</v>
+      </c>
+      <c r="K15" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L15" s="1">
+        <v>967424.84315785416</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1012233.585315747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D16" s="1">
+        <v>600493.42313980719</v>
+      </c>
+      <c r="E16" s="1">
+        <v>611591.29160260339</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>761860.03683254623</v>
+      </c>
+      <c r="I16" s="1">
+        <v>797448.03867417353</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1083483.585315747</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1134095.2645815343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D17" s="1">
+        <v>657191.29160260339</v>
+      </c>
+      <c r="E17" s="1">
+        <v>669423.11743465543</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H17" s="1">
+        <v>847548.03867417353</v>
+      </c>
+      <c r="I17" s="1">
+        <v>887420.44060788222</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1205345.2645815343</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1262050.0278106111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>715023.11743465543</v>
+      </c>
+      <c r="E18" s="1">
+        <v>728411.5797833486</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>937520.44060788222</v>
+      </c>
+      <c r="I18" s="1">
+        <v>981891.4626382764</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1333300.0278106111</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1396402.5292011416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D19" s="1">
+        <v>774011.5797833486</v>
+      </c>
+      <c r="E19" s="1">
+        <v>788579.81137901556</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1031991.4626382764</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1081086.0357701904</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1467652.5292011416</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1537472.6556611988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2">
+        <v>928199.41901625902</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D20" s="1">
+        <v>834179.81137901556</v>
+      </c>
+      <c r="E20" s="1">
+        <v>849951.40760659589</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1285893.0650891825</v>
+      </c>
+      <c r="G20" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1131186.0357701904</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1185240.3375587</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1615146.3642138243</v>
+      </c>
+      <c r="K20" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1608722.6556611988</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1685596.2884442587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D21" s="1">
+        <v>895551.40760659589</v>
+      </c>
+      <c r="E21" s="1">
+        <v>912550.43575872784</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1235340.3375587</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1294602.354436635</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1756846.2884442587</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1841126.1028664717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D22" s="1">
+        <v>958150.43575872784</v>
+      </c>
+      <c r="E22" s="1">
+        <v>976401.44447390246</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1344702.354436635</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1409432.4721584669</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1912376.1028664717</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2004432.4080097955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1022001.4444739025</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1041529.4733633805</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1459532.4721584669</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1530004.0957663904</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2075682.4080097955</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2175904.0284102852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1087129.4733633804</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1107960.0628306482</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1580104.0957663904</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1656604.30055471</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2247154.0284102852</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2355949.2298307996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1212152.6058372445</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1153560.0628306482</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1175719.2640872612</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1840084.3353199363</v>
+      </c>
+      <c r="G25" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1706704.30055471</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1789534.5155824455</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2472352.9328219122</v>
+      </c>
+      <c r="K25" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2427199.2298307996</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2544996.6913223397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1221319.2640872612</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1244833.6493690065</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1839634.5155824455</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1929111.241361568</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2616246.6913223397</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2743496.525888457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1290433.6493690065</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1315330.3223563866</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1979211.241361568</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2075666.8034296464</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2814746.525888457</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2951921.35218288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1360930.3223563866</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1387236.9288035142</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2125766.8034296464</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2229550.1436011288</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3023171.35218288</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3170767.419792024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1460450.8513860374</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1432836.9288035142</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1460581.6673795846</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2391798.5101084784</v>
+      </c>
+      <c r="G29" s="1">
+        <v>50100</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2279650.1436011288</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2391127.6507811854</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3400588.3076547612</v>
+      </c>
+      <c r="K29" s="1">
+        <v>71250</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3242017.419792024</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3400555.7907816251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="K34" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="2">
+        <v>438073.75511037413</v>
+      </c>
+      <c r="C37" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D37" s="1">
+        <v>60100</v>
+      </c>
+      <c r="E37" s="1">
+        <v>60100</v>
+      </c>
+      <c r="F37" s="2">
+        <v>511444.33784374589</v>
+      </c>
+      <c r="G37" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H37" s="1">
+        <v>72330</v>
+      </c>
+      <c r="I37" s="1">
+        <v>72330</v>
+      </c>
+      <c r="J37" s="2">
+        <v>568209.57546848676</v>
+      </c>
+      <c r="K37" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L37" s="1">
+        <v>102830</v>
+      </c>
+      <c r="M37" s="1">
+        <v>102830</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D38" s="1">
+        <v>120200</v>
+      </c>
+      <c r="E38" s="1">
+        <v>121402</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H38" s="1">
+        <v>144660</v>
+      </c>
+      <c r="I38" s="1">
+        <v>148276.5</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L38" s="1">
+        <v>205660</v>
+      </c>
+      <c r="M38" s="1">
+        <v>210801.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D39" s="1">
+        <v>181502</v>
+      </c>
+      <c r="E39" s="1">
+        <v>183930.04</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H39" s="1">
+        <v>220606.5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>228020.32500000001</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L39" s="1">
+        <v>313631.5</v>
+      </c>
+      <c r="M39" s="1">
+        <v>324171.57500000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D40" s="1">
+        <v>244030.04</v>
+      </c>
+      <c r="E40" s="1">
+        <v>247708.64080000002</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H40" s="1">
+        <v>300350.32500000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>311751.34125000006</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L40" s="1">
+        <v>427001.57500000001</v>
+      </c>
+      <c r="M40" s="1">
+        <v>443210.15375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D41" s="1">
+        <v>307808.64080000005</v>
+      </c>
+      <c r="E41" s="1">
+        <v>312762.813616</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H41" s="1">
+        <v>384081.34125000006</v>
+      </c>
+      <c r="I41" s="1">
+        <v>399668.90831250005</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L41" s="1">
+        <v>546040.15375000006</v>
+      </c>
+      <c r="M41" s="1">
+        <v>568200.66143750004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="2">
+        <v>671014.26916310214</v>
+      </c>
+      <c r="C42" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D42" s="1">
+        <v>372862.813616</v>
+      </c>
+      <c r="E42" s="1">
+        <v>379118.06988831999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>851669.7036349941</v>
+      </c>
+      <c r="G42" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H42" s="1">
+        <v>471998.90831250005</v>
+      </c>
+      <c r="I42" s="1">
+        <v>491982.35372812505</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1003969.9278336386</v>
+      </c>
+      <c r="K42" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L42" s="1">
+        <v>671030.66143750004</v>
+      </c>
+      <c r="M42" s="1">
+        <v>699440.69450937503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D43" s="1">
+        <v>439218.06988831999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>446800.43128608639</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H43" s="1">
+        <v>564312.3537281251</v>
+      </c>
+      <c r="I43" s="1">
+        <v>588911.47141453135</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L43" s="1">
+        <v>802270.69450937503</v>
+      </c>
+      <c r="M43" s="1">
+        <v>837242.72923484386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D44" s="1">
+        <v>506900.43128608639</v>
+      </c>
+      <c r="E44" s="1">
+        <v>515836.43991180812</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H44" s="1">
+        <v>661241.47141453135</v>
+      </c>
+      <c r="I44" s="1">
+        <v>690687.0449852579</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L44" s="1">
+        <v>940072.72923484386</v>
+      </c>
+      <c r="M44" s="1">
+        <v>981934.86569658609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D45" s="1">
+        <v>575936.43991180812</v>
+      </c>
+      <c r="E45" s="1">
+        <v>586253.16871004424</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H45" s="1">
+        <v>763017.0449852579</v>
+      </c>
+      <c r="I45" s="1">
+        <v>797551.39723452087</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1084764.8656965862</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1133861.6089814154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D46" s="1">
+        <v>646353.16871004424</v>
+      </c>
+      <c r="E46" s="1">
+        <v>658078.23208424519</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H46" s="1">
+        <v>869881.39723452087</v>
+      </c>
+      <c r="I46" s="1">
+        <v>909758.96709624701</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1236691.6089814154</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1293384.6894304862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2">
+        <v>928199.41901625902</v>
+      </c>
+      <c r="C47" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D47" s="1">
+        <v>718178.23208424519</v>
+      </c>
+      <c r="E47" s="1">
+        <v>731339.79672593006</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1285893.0650891825</v>
+      </c>
+      <c r="G47" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H47" s="1">
+        <v>982088.96709624701</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1027576.9154510594</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1615146.3642138243</v>
+      </c>
+      <c r="K47" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1396214.6894304862</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1460883.9239020105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D48" s="1">
+        <v>791439.79672593006</v>
+      </c>
+      <c r="E48" s="1">
+        <v>806066.59266044863</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1099906.9154510594</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1151285.7612236124</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1563713.9239020105</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1636758.1200971112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D49" s="1">
+        <v>866166.59266044863</v>
+      </c>
+      <c r="E49" s="1">
+        <v>882287.92451365758</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1223615.7612236124</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1281180.049284793</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1739588.1200971112</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1821426.0261019669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D50" s="1">
+        <v>942387.92451365758</v>
+      </c>
+      <c r="E50" s="1">
+        <v>960033.68300393072</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1353510.049284793</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1417569.0517490327</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1924256.0261019669</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2015327.3274070653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1020133.6830039307</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1039334.3566640094</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1489899.0517490327</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1560777.5043364845</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2118157.3274070653</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2218923.6937774187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1212152.6058372445</v>
+      </c>
+      <c r="C52" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1099434.3566640094</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1120221.0437972895</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1840084.3353199363</v>
+      </c>
+      <c r="G52" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1633107.5043364845</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1711146.3795533087</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2472352.9328219122</v>
+      </c>
+      <c r="K52" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2321753.6937774187</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2432699.87846629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1180321.0437972895</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1202725.4646732353</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1783476.3795533087</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1869033.6985309743</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2535529.87846629</v>
+      </c>
+      <c r="M53" s="1">
+        <v>2657164.8723896043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1262825.4646732353</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1286879.9739667</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1941363.6985309743</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2034815.3834575231</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2759994.8723896043</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2892853.1160090845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1346979.9739667</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1372717.573446034</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2107145.3834575228</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2208886.1526303994</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2995683.1160090845</v>
+      </c>
+      <c r="M55" s="1">
+        <v>3140325.7718095388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1460450.8513860374</v>
+      </c>
+      <c r="C56" s="1">
+        <v>60100</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1432817.573446034</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1460271.9249149547</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2391798.5101084784</v>
+      </c>
+      <c r="G56" s="1">
+        <v>72330</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2281216.1526303994</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2391660.4602619195</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3400588.3076547612</v>
+      </c>
+      <c r="K56" s="1">
+        <v>102830</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3243155.7718095388</v>
+      </c>
+      <c r="M56" s="1">
+        <v>3400172.0604000157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C60" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="G60" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="K60" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="2">
+        <v>671014.26916310214</v>
+      </c>
+      <c r="C63" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D63" s="1">
+        <v>84450</v>
+      </c>
+      <c r="E63" s="1">
+        <v>84450</v>
+      </c>
+      <c r="F63" s="2">
+        <v>851669.7036349941</v>
+      </c>
+      <c r="G63" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H63" s="1">
+        <v>110850</v>
+      </c>
+      <c r="I63" s="1">
+        <v>110850</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1003969.9278336386</v>
+      </c>
+      <c r="K63" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L63" s="1">
+        <v>157600</v>
+      </c>
+      <c r="M63" s="1">
+        <v>157600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D64" s="1">
+        <v>168900</v>
+      </c>
+      <c r="E64" s="1">
+        <v>170589</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H64" s="1">
+        <v>221700</v>
+      </c>
+      <c r="I64" s="1">
+        <v>227242.5</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L64" s="1">
+        <v>315200</v>
+      </c>
+      <c r="M64" s="1">
+        <v>323080</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D65" s="1">
+        <v>255039</v>
+      </c>
+      <c r="E65" s="1">
+        <v>258450.78</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H65" s="1">
+        <v>338092.5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>349454.625</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L65" s="1">
+        <v>480680</v>
+      </c>
+      <c r="M65" s="1">
+        <v>496834</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D66" s="1">
+        <v>342900.78</v>
+      </c>
+      <c r="E66" s="1">
+        <v>348069.79560000001</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H66" s="1">
+        <v>460304.625</v>
+      </c>
+      <c r="I66" s="1">
+        <v>477777.35625000001</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L66" s="1">
+        <v>654434</v>
+      </c>
+      <c r="M66" s="1">
+        <v>679275.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D67" s="1">
+        <v>432519.79560000001</v>
+      </c>
+      <c r="E67" s="1">
+        <v>439481.19151199999</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H67" s="1">
+        <v>588627.35624999995</v>
+      </c>
+      <c r="I67" s="1">
+        <v>612516.22406250006</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L67" s="1">
+        <v>836875.7</v>
+      </c>
+      <c r="M67" s="1">
+        <v>870839.48499999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="2">
+        <v>928199.41901625902</v>
+      </c>
+      <c r="C68" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D68" s="1">
+        <v>523931.19151199999</v>
+      </c>
+      <c r="E68" s="1">
+        <v>532720.81534224004</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1285893.0650891825</v>
+      </c>
+      <c r="G68" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H68" s="1">
+        <v>723366.22406250006</v>
+      </c>
+      <c r="I68" s="1">
+        <v>753992.03526562511</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1615146.3642138243</v>
+      </c>
+      <c r="K68" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1028439.485</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1071981.4592500001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D69" s="1">
+        <v>617170.81534224004</v>
+      </c>
+      <c r="E69" s="1">
+        <v>627825.23164908483</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H69" s="1">
+        <v>864842.03526562511</v>
+      </c>
+      <c r="I69" s="1">
+        <v>902541.63702890638</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1229581.4592500001</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1283180.5322125002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D70" s="1">
+        <v>712275.23164908483</v>
+      </c>
+      <c r="E70" s="1">
+        <v>724831.73628206656</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1013391.6370289064</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1058518.7188803516</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1440780.5322125002</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1504939.5588231252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D71" s="1">
+        <v>809281.73628206656</v>
+      </c>
+      <c r="E71" s="1">
+        <v>823778.3710077079</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1169368.7188803516</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1222294.6548243694</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1662539.5588231252</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1737786.5367642816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D72" s="1">
+        <v>908228.3710077079</v>
+      </c>
+      <c r="E72" s="1">
+        <v>924703.93842786213</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1333144.6548243694</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1394259.3875655879</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1895386.5367642816</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1982275.8636024958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1212152.6058372445</v>
+      </c>
+      <c r="C73" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1009153.9384278621</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1027648.0171964194</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1840084.3353199363</v>
+      </c>
+      <c r="G73" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1505109.3875655879</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1574822.3569438674</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2472352.9328219122</v>
+      </c>
+      <c r="K73" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2139875.8636024958</v>
+      </c>
+      <c r="M73" s="1">
+        <v>2238989.6567826206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1112098.0171964194</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1132650.9775403477</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1685672.3569438674</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1764413.4747910609</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2396589.6567826206</v>
+      </c>
+      <c r="M74" s="1">
+        <v>2508539.1396217518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1217100.9775403477</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1239753.9970911548</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1875263.4747910609</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1963484.1485306141</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2666139.1396217518</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2791566.0966028394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1324203.9970911548</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1348999.0770329779</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2074334.1485306141</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2172508.3559571449</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L76" s="1">
+        <v>2949166.0966028394</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3088744.4014329817</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1460450.8513860374</v>
+      </c>
+      <c r="C77" s="1">
+        <v>84450</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1433449.0770329779</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1460429.0585736376</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2391798.5101084784</v>
+      </c>
+      <c r="G77" s="1">
+        <v>110850</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2283358.3559571449</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2391983.7737550023</v>
+      </c>
+      <c r="J77" s="2">
+        <v>3400588.3076547612</v>
+      </c>
+      <c r="K77" s="1">
+        <v>157600</v>
+      </c>
+      <c r="L77" s="1">
+        <v>3246344.4014329817</v>
+      </c>
+      <c r="M77" s="1">
+        <v>3400781.6215046309</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:M34"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>